--- a/Code/Results/Cases/Case_3_246/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_246/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.670586048526673</v>
+        <v>1.095848521699395</v>
       </c>
       <c r="C2">
-        <v>0.5358300026347251</v>
+        <v>0.3766966690989761</v>
       </c>
       <c r="D2">
-        <v>0.05014462197816272</v>
+        <v>0.02983574819897683</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5333202046710568</v>
+        <v>0.7669624737050498</v>
       </c>
       <c r="G2">
-        <v>0.000794032008544596</v>
+        <v>0.00243212134707261</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1735615667605401</v>
+        <v>0.2701266419800135</v>
       </c>
       <c r="M2">
-        <v>0.4397400708896271</v>
+        <v>0.2543820577602602</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.537396716954817</v>
+        <v>2.649840988883795</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.320277164135518</v>
+        <v>0.9896832470606114</v>
       </c>
       <c r="C3">
-        <v>0.4977097561393009</v>
+        <v>0.3637491913727899</v>
       </c>
       <c r="D3">
-        <v>0.04579206628842059</v>
+        <v>0.02832589650306261</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4992580986691877</v>
+        <v>0.7667236685179191</v>
       </c>
       <c r="G3">
-        <v>0.0007986013229773815</v>
+        <v>0.002435121979148858</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1614141517353076</v>
+        <v>0.2689680485931163</v>
       </c>
       <c r="M3">
-        <v>0.3833224004929789</v>
+        <v>0.2385282370809136</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.475723836193907</v>
+        <v>2.664703294676002</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.105760242650547</v>
+        <v>0.9245442686059278</v>
       </c>
       <c r="C4">
-        <v>0.474363394212503</v>
+        <v>0.3557893218381025</v>
       </c>
       <c r="D4">
-        <v>0.04311981629557238</v>
+        <v>0.02739473749461752</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4797787585495286</v>
+        <v>0.7671982436097551</v>
       </c>
       <c r="G4">
-        <v>0.0008014971750421735</v>
+        <v>0.00243706301914252</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1542368300773305</v>
+        <v>0.2684068073203605</v>
       </c>
       <c r="M4">
-        <v>0.3488830387354582</v>
+        <v>0.228864422130755</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.442654309231131</v>
+        <v>2.675951353872847</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.018449099454017</v>
+        <v>0.8980128366425788</v>
       </c>
       <c r="C5">
-        <v>0.4648616609967462</v>
+        <v>0.3525433650557659</v>
       </c>
       <c r="D5">
-        <v>0.04203059905417916</v>
+        <v>0.02701427779389576</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4721793486571002</v>
+        <v>0.7675475738428901</v>
       </c>
       <c r="G5">
-        <v>0.00080270044100261</v>
+        <v>0.002437878887630242</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1513785863998152</v>
+        <v>0.2682158706442763</v>
       </c>
       <c r="M5">
-        <v>0.3348918198359101</v>
+        <v>0.2249442616060122</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.430315120515758</v>
+        <v>2.681067784640021</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.003956500558843</v>
+        <v>0.8936081540948067</v>
       </c>
       <c r="C6">
-        <v>0.463284556165803</v>
+        <v>0.3520042492646098</v>
       </c>
       <c r="D6">
-        <v>0.04184971139301297</v>
+        <v>0.02695104286446082</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4709372936065606</v>
+        <v>0.7676149901686671</v>
       </c>
       <c r="G6">
-        <v>0.0008029016562082894</v>
+        <v>0.002438015866765183</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.150907881081956</v>
+        <v>0.2681864477861211</v>
       </c>
       <c r="M6">
-        <v>0.3325709807377066</v>
+        <v>0.2242944102309323</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.428332911016099</v>
+        <v>2.681949512555917</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.104582352451359</v>
+        <v>0.9241864009583196</v>
       </c>
       <c r="C7">
-        <v>0.474235205179383</v>
+        <v>0.3557455544399204</v>
       </c>
       <c r="D7">
-        <v>0.04310512815277434</v>
+        <v>0.02738961051468891</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4796749278993673</v>
+        <v>0.7672023237760897</v>
       </c>
       <c r="G7">
-        <v>0.0008015133082523603</v>
+        <v>0.0024370739214153</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1541980185683229</v>
+        <v>0.2684040793105424</v>
       </c>
       <c r="M7">
-        <v>0.3486941833562582</v>
+        <v>0.2288114806458239</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.442483384513707</v>
+        <v>2.676018200044609</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.549656546398694</v>
+        <v>1.059233815033338</v>
       </c>
       <c r="C8">
-        <v>0.5226719386672301</v>
+        <v>0.3722346343712388</v>
       </c>
       <c r="D8">
-        <v>0.04864361350013269</v>
+        <v>0.02931601884390034</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5212640008010823</v>
+        <v>0.7667510387421288</v>
       </c>
       <c r="G8">
-        <v>0.0007955890699916703</v>
+        <v>0.002433135537625974</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1693121962319566</v>
+        <v>0.2696960081912678</v>
       </c>
       <c r="M8">
-        <v>0.4202407855610915</v>
+        <v>0.2489011408707356</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.515093054871812</v>
+        <v>2.65452438763225</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.428892158429392</v>
+        <v>1.324384722473781</v>
       </c>
       <c r="C9">
-        <v>0.6182770556841035</v>
+        <v>0.4044789424853263</v>
       </c>
       <c r="D9">
-        <v>0.05952249919160835</v>
+        <v>0.03306013259597762</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6152745749202992</v>
+        <v>0.7708084382374523</v>
       </c>
       <c r="G9">
-        <v>0.0007846647461094391</v>
+        <v>0.002426191611163806</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2013828639054651</v>
+        <v>0.2734204153761297</v>
       </c>
       <c r="M9">
-        <v>0.5625108854609024</v>
+        <v>0.2888498465199234</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.698889711808789</v>
+        <v>2.62926288531412</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.081691228405077</v>
+        <v>1.51934265579348</v>
       </c>
       <c r="C10">
-        <v>0.6891283857036683</v>
+        <v>0.4281014261370046</v>
       </c>
       <c r="D10">
-        <v>0.06755145100556348</v>
+        <v>0.03578939659328029</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6935292782175679</v>
+        <v>0.7768227769668101</v>
       </c>
       <c r="G10">
-        <v>0.0007770266405638496</v>
+        <v>0.002421560139978345</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2267273001554884</v>
+        <v>0.2768830601651615</v>
       </c>
       <c r="M10">
-        <v>0.6687988484190086</v>
+        <v>0.3185318990945305</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.86414461669267</v>
+        <v>2.621066124280219</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.380854745797421</v>
+        <v>1.608058796412593</v>
       </c>
       <c r="C11">
-        <v>0.7215505397456639</v>
+        <v>0.4388309081520276</v>
       </c>
       <c r="D11">
-        <v>0.07121821607218948</v>
+        <v>0.03702612717425069</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7315074242769839</v>
+        <v>0.7802219931706276</v>
       </c>
       <c r="G11">
-        <v>0.000773627887506605</v>
+        <v>0.00241955424637246</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2387162993395435</v>
+        <v>0.2786161388830664</v>
       </c>
       <c r="M11">
-        <v>0.7176714007755152</v>
+        <v>0.3321061649565067</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.947085500718856</v>
+        <v>2.619602122042181</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.49451996971959</v>
+        <v>1.641656320943923</v>
       </c>
       <c r="C12">
-        <v>0.7338606560910819</v>
+        <v>0.4428912662944526</v>
       </c>
       <c r="D12">
-        <v>0.07260935712764649</v>
+        <v>0.03749372829816622</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7462656917384294</v>
+        <v>0.781604887578851</v>
       </c>
       <c r="G12">
-        <v>0.0007723510469566158</v>
+        <v>0.002418809110888361</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.243328826828332</v>
+        <v>0.2792951120056131</v>
       </c>
       <c r="M12">
-        <v>0.7362654207755241</v>
+        <v>0.3372565597314221</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.979718784502154</v>
+        <v>2.619374538488273</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.470022254415596</v>
+        <v>1.634420398769976</v>
       </c>
       <c r="C13">
-        <v>0.7312079198369474</v>
+        <v>0.4420169185815439</v>
       </c>
       <c r="D13">
-        <v>0.07230962425047238</v>
+        <v>0.03739305457945363</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7430698972742249</v>
+        <v>0.781302796016476</v>
       </c>
       <c r="G13">
-        <v>0.000772625596031597</v>
+        <v>0.002418968947419706</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2423321013704935</v>
+        <v>0.2791478738809587</v>
       </c>
       <c r="M13">
-        <v>0.7322567919808378</v>
+        <v>0.3361468834102368</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.972634297378619</v>
+        <v>2.619409000039468</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.390198093348374</v>
+        <v>1.610822840417825</v>
       </c>
       <c r="C14">
-        <v>0.7225626177173012</v>
+        <v>0.4391650112981722</v>
       </c>
       <c r="D14">
-        <v>0.07133261028262439</v>
+        <v>0.03706461162776264</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7327138367919304</v>
+        <v>0.7803338452957433</v>
       </c>
       <c r="G14">
-        <v>0.0007735226410828902</v>
+        <v>0.002419492654213504</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2390942818671533</v>
+        <v>0.2786715436644442</v>
       </c>
       <c r="M14">
-        <v>0.7191993249183852</v>
+        <v>0.3325296894716487</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.949745047843578</v>
+        <v>2.619576842519024</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.341354707064738</v>
+        <v>1.596368955274272</v>
       </c>
       <c r="C15">
-        <v>0.7172715161407268</v>
+        <v>0.437417780271403</v>
       </c>
       <c r="D15">
-        <v>0.07073451911289652</v>
+        <v>0.03686333599626579</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7264205908709727</v>
+        <v>0.7797528051362406</v>
       </c>
       <c r="G15">
-        <v>0.0007740734124260651</v>
+        <v>0.002419815320167234</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2371206728496844</v>
+        <v>0.2783827326867083</v>
       </c>
       <c r="M15">
-        <v>0.7112129596391981</v>
+        <v>0.3303153650114581</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.935887679299611</v>
+        <v>2.619722243785532</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.062189666101688</v>
+        <v>1.51354529881911</v>
       </c>
       <c r="C16">
-        <v>0.6870137934104719</v>
+        <v>0.4273998722248962</v>
       </c>
       <c r="D16">
-        <v>0.06731215414937708</v>
+        <v>0.03570847383978304</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6910980949260193</v>
+        <v>0.776614003168973</v>
       </c>
       <c r="G16">
-        <v>0.0007772502236370484</v>
+        <v>0.002421693255983648</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2259535808175031</v>
+        <v>0.2767729757513706</v>
       </c>
       <c r="M16">
-        <v>0.6656164147608905</v>
+        <v>0.3176462153293897</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.858889589195144</v>
+        <v>2.621207469844677</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.891537303129155</v>
+        <v>1.462741976490463</v>
       </c>
       <c r="C17">
-        <v>0.6685041355458168</v>
+        <v>0.4212497750645525</v>
       </c>
       <c r="D17">
-        <v>0.06521669707159106</v>
+        <v>0.03499874738275821</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6700621213860956</v>
+        <v>0.7748585476610117</v>
       </c>
       <c r="G17">
-        <v>0.0007792180315792183</v>
+        <v>0.00242287112481881</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2192250998175638</v>
+        <v>0.2758258760607788</v>
       </c>
       <c r="M17">
-        <v>0.6377862643316803</v>
+        <v>0.3098923346023668</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.813717302704731</v>
+        <v>2.622699472481969</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.793585829521703</v>
+        <v>1.433524048166646</v>
       </c>
       <c r="C18">
-        <v>0.6578755708239044</v>
+        <v>0.4177108655115376</v>
       </c>
       <c r="D18">
-        <v>0.0640127605260048</v>
+        <v>0.03459007896947952</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6581845460209053</v>
+        <v>0.7739112672472714</v>
       </c>
       <c r="G18">
-        <v>0.0007803570487928432</v>
+        <v>0.002423558113000392</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2153979080888746</v>
+        <v>0.2752959928107686</v>
       </c>
       <c r="M18">
-        <v>0.6218274175937353</v>
+        <v>0.3054392730586528</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.788459324058437</v>
+        <v>2.623770733955325</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.760454252360148</v>
+        <v>1.423631886170881</v>
       </c>
       <c r="C19">
-        <v>0.6542798164240935</v>
+        <v>0.4165123965929638</v>
       </c>
       <c r="D19">
-        <v>0.06360533817208136</v>
+        <v>0.03445163400472495</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6542000818426033</v>
+        <v>0.7736012441218776</v>
       </c>
       <c r="G19">
-        <v>0.0007807439555737736</v>
+        <v>0.002423792350678509</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2141092583796365</v>
+        <v>0.2751191366434824</v>
       </c>
       <c r="M19">
-        <v>0.6164319746714924</v>
+        <v>0.3039327111406323</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.780028571943546</v>
+        <v>2.624170010347115</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.909682071284465</v>
+        <v>1.468149798068168</v>
       </c>
       <c r="C20">
-        <v>0.6704726534283054</v>
+        <v>0.4219046245282527</v>
       </c>
       <c r="D20">
-        <v>0.06543962213119414</v>
+        <v>0.03507434601374371</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6722782437005321</v>
+        <v>0.7750389573323702</v>
       </c>
       <c r="G20">
-        <v>0.0007790078163321116</v>
+        <v>0.00242274475486679</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2199368779199062</v>
+        <v>0.2759251582215967</v>
       </c>
       <c r="M20">
-        <v>0.6407437464391421</v>
+        <v>0.3107170497080602</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.818450286864959</v>
+        <v>2.622518582855918</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.413633592820815</v>
+        <v>1.61775395529412</v>
       </c>
       <c r="C21">
-        <v>0.7251010268725793</v>
+        <v>0.4400027601921011</v>
       </c>
       <c r="D21">
-        <v>0.07161950727788025</v>
+        <v>0.03716110309839138</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7357451479276307</v>
+        <v>0.7806158502975364</v>
       </c>
       <c r="G21">
-        <v>0.0007732588865129268</v>
+        <v>0.002419338437068593</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2400432848633756</v>
+        <v>0.2788108375912515</v>
       </c>
       <c r="M21">
-        <v>0.7230321561653881</v>
+        <v>0.3335918741049397</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.956434008302722</v>
+        <v>2.619518664773977</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.74523380614886</v>
+        <v>1.715543669697638</v>
       </c>
       <c r="C22">
-        <v>0.7609962211622872</v>
+        <v>0.4518152789830481</v>
       </c>
       <c r="D22">
-        <v>0.07567396799358761</v>
+        <v>0.03852069889153142</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7794386482671314</v>
+        <v>0.7848185394536529</v>
       </c>
       <c r="G22">
-        <v>0.0007695606716442584</v>
+        <v>0.002417196422199151</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2536102586244198</v>
+        <v>0.2808290670911617</v>
       </c>
       <c r="M22">
-        <v>0.7773260865111595</v>
+        <v>0.3486007588146336</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.053813805702276</v>
+        <v>2.619463422110101</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.568025835536389</v>
+        <v>1.663350598659974</v>
       </c>
       <c r="C23">
-        <v>0.74181889783614</v>
+        <v>0.4455122432351857</v>
       </c>
       <c r="D23">
-        <v>0.07350840633056777</v>
+        <v>0.03779545238889881</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7559038341971132</v>
+        <v>0.782524338841398</v>
       </c>
       <c r="G23">
-        <v>0.0007715293267812075</v>
+        <v>0.002418331973199823</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2463280359239661</v>
+        <v>0.2797398013318855</v>
       </c>
       <c r="M23">
-        <v>0.7482971445284363</v>
+        <v>0.3405849149660725</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.001143328122794</v>
+        <v>2.619318190358314</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.901478331452097</v>
+        <v>1.465704954285627</v>
       </c>
       <c r="C24">
-        <v>0.6695826467351935</v>
+        <v>0.4216085768341031</v>
       </c>
       <c r="D24">
-        <v>0.0653388353555755</v>
+        <v>0.03504016985618819</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6712756636995749</v>
+        <v>0.7749572011577897</v>
       </c>
       <c r="G24">
-        <v>0.0007791028306165537</v>
+        <v>0.002422801856210933</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2196149554989688</v>
+        <v>0.2758802272260823</v>
       </c>
       <c r="M24">
-        <v>0.6394065417288886</v>
+        <v>0.3103441812055578</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.816308294583706</v>
+        <v>2.622599698126095</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.190060363999123</v>
+        <v>1.252624532376501</v>
       </c>
       <c r="C25">
-        <v>0.5923241998677611</v>
+        <v>0.3957669810866378</v>
       </c>
       <c r="D25">
-        <v>0.05657508263506372</v>
+        <v>0.03205095645453326</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5883513406336007</v>
+        <v>0.7691795773028645</v>
       </c>
       <c r="G25">
-        <v>0.0007875492970584336</v>
+        <v>0.002427987204045439</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1924169140211305</v>
+        <v>0.2722853365068545</v>
       </c>
       <c r="M25">
-        <v>0.5237569200814605</v>
+        <v>0.2779840279621553</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.644242869674599</v>
+        <v>2.634281830457326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_246/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_246/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.095848521699395</v>
+        <v>2.670586048526673</v>
       </c>
       <c r="C2">
-        <v>0.3766966690989761</v>
+        <v>0.5358300026348957</v>
       </c>
       <c r="D2">
-        <v>0.02983574819897683</v>
+        <v>0.05014462197829062</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7669624737050498</v>
+        <v>0.5333202046710426</v>
       </c>
       <c r="G2">
-        <v>0.00243212134707261</v>
+        <v>0.000794032008544939</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2701266419800135</v>
+        <v>0.1735615667606467</v>
       </c>
       <c r="M2">
-        <v>0.2543820577602602</v>
+        <v>0.4397400708896129</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.649840988883795</v>
+        <v>1.537396716954873</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9896832470606114</v>
+        <v>2.320277164135518</v>
       </c>
       <c r="C3">
-        <v>0.3637491913727899</v>
+        <v>0.4977097561390735</v>
       </c>
       <c r="D3">
-        <v>0.02832589650306261</v>
+        <v>0.04579206628848453</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7667236685179191</v>
+        <v>0.4992580986691877</v>
       </c>
       <c r="G3">
-        <v>0.002435121979148858</v>
+        <v>0.0007986013230710044</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2689680485931163</v>
+        <v>0.161414151735336</v>
       </c>
       <c r="M3">
-        <v>0.2385282370809136</v>
+        <v>0.3833224004929932</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.664703294676002</v>
+        <v>1.475723836193936</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9245442686059278</v>
+        <v>2.105760242650604</v>
       </c>
       <c r="C4">
-        <v>0.3557893218381025</v>
+        <v>0.4743633942125598</v>
       </c>
       <c r="D4">
-        <v>0.02739473749461752</v>
+        <v>0.0431198162957287</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7671982436097551</v>
+        <v>0.4797787585495428</v>
       </c>
       <c r="G4">
-        <v>0.00243706301914252</v>
+        <v>0.0008014971750619947</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2684068073203605</v>
+        <v>0.154236830077302</v>
       </c>
       <c r="M4">
-        <v>0.228864422130755</v>
+        <v>0.3488830387354582</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.675951353872847</v>
+        <v>1.442654309231102</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8980128366425788</v>
+        <v>2.01844909945396</v>
       </c>
       <c r="C5">
-        <v>0.3525433650557659</v>
+        <v>0.4648616609964336</v>
       </c>
       <c r="D5">
-        <v>0.02701427779389576</v>
+        <v>0.04203059905413653</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7675475738428901</v>
+        <v>0.4721793486571215</v>
       </c>
       <c r="G5">
-        <v>0.002437878887630242</v>
+        <v>0.000802700440924724</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2682158706442763</v>
+        <v>0.1513785863998436</v>
       </c>
       <c r="M5">
-        <v>0.2249442616060122</v>
+        <v>0.3348918198359101</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.681067784640021</v>
+        <v>1.430315120515786</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8936081540948067</v>
+        <v>2.003956500558786</v>
       </c>
       <c r="C6">
-        <v>0.3520042492646098</v>
+        <v>0.4632845561657462</v>
       </c>
       <c r="D6">
-        <v>0.02695104286446082</v>
+        <v>0.04184971139285665</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7676149901686671</v>
+        <v>0.470937293606589</v>
       </c>
       <c r="G6">
-        <v>0.002438015866765183</v>
+        <v>0.0008029016561497533</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2681864477861211</v>
+        <v>0.1509078810819986</v>
       </c>
       <c r="M6">
-        <v>0.2242944102309323</v>
+        <v>0.3325709807377137</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.681949512555917</v>
+        <v>1.428332911016184</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9241864009583196</v>
+        <v>2.104582352451359</v>
       </c>
       <c r="C7">
-        <v>0.3557455544399204</v>
+        <v>0.474235205179383</v>
       </c>
       <c r="D7">
-        <v>0.02738961051468891</v>
+        <v>0.04310512815293777</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7672023237760897</v>
+        <v>0.4796749278993673</v>
       </c>
       <c r="G7">
-        <v>0.0024370739214153</v>
+        <v>0.0008015133082729702</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2684040793105424</v>
+        <v>0.1541980185683158</v>
       </c>
       <c r="M7">
-        <v>0.2288114806458239</v>
+        <v>0.3486941833562724</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.676018200044609</v>
+        <v>1.442483384513622</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.059233815033338</v>
+        <v>2.549656546398808</v>
       </c>
       <c r="C8">
-        <v>0.3722346343712388</v>
+        <v>0.5226719386675427</v>
       </c>
       <c r="D8">
-        <v>0.02931601884390034</v>
+        <v>0.04864361350013979</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7667510387421288</v>
+        <v>0.5212640008010823</v>
       </c>
       <c r="G8">
-        <v>0.002433135537625974</v>
+        <v>0.000795589069969912</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2696960081912678</v>
+        <v>0.1693121962319566</v>
       </c>
       <c r="M8">
-        <v>0.2489011408707356</v>
+        <v>0.4202407855610986</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.65452438763225</v>
+        <v>1.515093054871897</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.324384722473781</v>
+        <v>3.428892158429505</v>
       </c>
       <c r="C9">
-        <v>0.4044789424853263</v>
+        <v>0.6182770556837625</v>
       </c>
       <c r="D9">
-        <v>0.03306013259597762</v>
+        <v>0.05952249919179309</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7708084382374523</v>
+        <v>0.6152745749202921</v>
       </c>
       <c r="G9">
-        <v>0.002426191611163806</v>
+        <v>0.0007846647461108691</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2734204153761297</v>
+        <v>0.2013828639055149</v>
       </c>
       <c r="M9">
-        <v>0.2888498465199234</v>
+        <v>0.5625108854609024</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.62926288531412</v>
+        <v>1.698889711808704</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.51934265579348</v>
+        <v>4.081691228405191</v>
       </c>
       <c r="C10">
-        <v>0.4281014261370046</v>
+        <v>0.689128385704123</v>
       </c>
       <c r="D10">
-        <v>0.03578939659328029</v>
+        <v>0.06755145100544269</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7768227769668101</v>
+        <v>0.6935292782175679</v>
       </c>
       <c r="G10">
-        <v>0.002421560139978345</v>
+        <v>0.0007770266405051743</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2768830601651615</v>
+        <v>0.2267273001555594</v>
       </c>
       <c r="M10">
-        <v>0.3185318990945305</v>
+        <v>0.6687988484190015</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.621066124280219</v>
+        <v>1.864144616692727</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.608058796412593</v>
+        <v>4.380854745797706</v>
       </c>
       <c r="C11">
-        <v>0.4388309081520276</v>
+        <v>0.7215505397457775</v>
       </c>
       <c r="D11">
-        <v>0.03702612717425069</v>
+        <v>0.07121821607230316</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7802219931706276</v>
+        <v>0.7315074242769697</v>
       </c>
       <c r="G11">
-        <v>0.00241955424637246</v>
+        <v>0.0007736278875059656</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2786161388830664</v>
+        <v>0.2387162993394725</v>
       </c>
       <c r="M11">
-        <v>0.3321061649565067</v>
+        <v>0.7176714007754867</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.619602122042181</v>
+        <v>1.947085500718885</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.641656320943923</v>
+        <v>4.494519969719533</v>
       </c>
       <c r="C12">
-        <v>0.4428912662944526</v>
+        <v>0.7338606560912808</v>
       </c>
       <c r="D12">
-        <v>0.03749372829816622</v>
+        <v>0.07260935712775307</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.781604887578851</v>
+        <v>0.7462656917384294</v>
       </c>
       <c r="G12">
-        <v>0.002418809110888361</v>
+        <v>0.000772351046927566</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2792951120056131</v>
+        <v>0.2433288268283889</v>
       </c>
       <c r="M12">
-        <v>0.3372565597314221</v>
+        <v>0.7362654207755384</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.619374538488273</v>
+        <v>1.979718784502211</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.634420398769976</v>
+        <v>4.470022254415596</v>
       </c>
       <c r="C13">
-        <v>0.4420169185815439</v>
+        <v>0.7312079198366632</v>
       </c>
       <c r="D13">
-        <v>0.03739305457945363</v>
+        <v>0.07230962425045817</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.781302796016476</v>
+        <v>0.7430698972742533</v>
       </c>
       <c r="G13">
-        <v>0.002418968947419706</v>
+        <v>0.0007726255960291657</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2791478738809587</v>
+        <v>0.2423321013705504</v>
       </c>
       <c r="M13">
-        <v>0.3361468834102368</v>
+        <v>0.7322567919808378</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.619409000039468</v>
+        <v>1.97263429737859</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.610822840417825</v>
+        <v>4.390198093348317</v>
       </c>
       <c r="C14">
-        <v>0.4391650112981722</v>
+        <v>0.7225626177169602</v>
       </c>
       <c r="D14">
-        <v>0.03706461162776264</v>
+        <v>0.07133261028256044</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7803338452957433</v>
+        <v>0.7327138367919446</v>
       </c>
       <c r="G14">
-        <v>0.002419492654213504</v>
+        <v>0.000773522641111177</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2786715436644442</v>
+        <v>0.2390942818669686</v>
       </c>
       <c r="M14">
-        <v>0.3325296894716487</v>
+        <v>0.7191993249183923</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.619576842519024</v>
+        <v>1.94974504784355</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.596368955274272</v>
+        <v>4.341354707064454</v>
       </c>
       <c r="C15">
-        <v>0.437417780271403</v>
+        <v>0.7172715161404994</v>
       </c>
       <c r="D15">
-        <v>0.03686333599626579</v>
+        <v>0.07073451911288942</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7797528051362406</v>
+        <v>0.7264205908709869</v>
       </c>
       <c r="G15">
-        <v>0.002419815320167234</v>
+        <v>0.0007740734124246679</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2783827326867083</v>
+        <v>0.2371206728497839</v>
       </c>
       <c r="M15">
-        <v>0.3303153650114581</v>
+        <v>0.7112129596392123</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.619722243785532</v>
+        <v>1.93588767929964</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.51354529881911</v>
+        <v>4.062189666101688</v>
       </c>
       <c r="C16">
-        <v>0.4273998722248962</v>
+        <v>0.6870137934104434</v>
       </c>
       <c r="D16">
-        <v>0.03570847383978304</v>
+        <v>0.06731215414909286</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.776614003168973</v>
+        <v>0.691098094926005</v>
       </c>
       <c r="G16">
-        <v>0.002421693255983648</v>
+        <v>0.0007772502236373259</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2767729757513706</v>
+        <v>0.2259535808174746</v>
       </c>
       <c r="M16">
-        <v>0.3176462153293897</v>
+        <v>0.6656164147609118</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.621207469844677</v>
+        <v>1.858889589195144</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.462741976490463</v>
+        <v>3.891537303129098</v>
       </c>
       <c r="C17">
-        <v>0.4212497750645525</v>
+        <v>0.6685041355457031</v>
       </c>
       <c r="D17">
-        <v>0.03499874738275821</v>
+        <v>0.06521669707152711</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7748585476610117</v>
+        <v>0.6700621213860813</v>
       </c>
       <c r="G17">
-        <v>0.00242287112481881</v>
+        <v>0.0007792180316048046</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2758258760607788</v>
+        <v>0.2192250998174927</v>
       </c>
       <c r="M17">
-        <v>0.3098923346023668</v>
+        <v>0.6377862643316803</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.622699472481969</v>
+        <v>1.81371730270476</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.433524048166646</v>
+        <v>3.793585829521703</v>
       </c>
       <c r="C18">
-        <v>0.4177108655115376</v>
+        <v>0.6578755708243023</v>
       </c>
       <c r="D18">
-        <v>0.03459007896947952</v>
+        <v>0.06401276052585558</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7739112672472714</v>
+        <v>0.6581845460208768</v>
       </c>
       <c r="G18">
-        <v>0.002423558113000392</v>
+        <v>0.000780357048824009</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2752959928107686</v>
+        <v>0.2153979080889172</v>
       </c>
       <c r="M18">
-        <v>0.3054392730586528</v>
+        <v>0.6218274175937566</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.623770733955325</v>
+        <v>1.788459324058351</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.423631886170881</v>
+        <v>3.760454252360205</v>
       </c>
       <c r="C19">
-        <v>0.4165123965929638</v>
+        <v>0.6542798164241219</v>
       </c>
       <c r="D19">
-        <v>0.03445163400472495</v>
+        <v>0.06360533817198899</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7736012441218776</v>
+        <v>0.6542000818426175</v>
       </c>
       <c r="G19">
-        <v>0.002423792350678509</v>
+        <v>0.0007807439556006385</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2751191366434824</v>
+        <v>0.2141092583797075</v>
       </c>
       <c r="M19">
-        <v>0.3039327111406323</v>
+        <v>0.6164319746714924</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.624170010347115</v>
+        <v>1.780028571943632</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.468149798068168</v>
+        <v>3.909682071284351</v>
       </c>
       <c r="C20">
-        <v>0.4219046245282527</v>
+        <v>0.670472653428277</v>
       </c>
       <c r="D20">
-        <v>0.03507434601374371</v>
+        <v>0.06543962213125099</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7750389573323702</v>
+        <v>0.6722782437005179</v>
       </c>
       <c r="G20">
-        <v>0.00242274475486679</v>
+        <v>0.0007790078163613658</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2759251582215967</v>
+        <v>0.2199368779199204</v>
       </c>
       <c r="M20">
-        <v>0.3107170497080602</v>
+        <v>0.6407437464391492</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.622518582855918</v>
+        <v>1.818450286865016</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.61775395529412</v>
+        <v>4.413633592820872</v>
       </c>
       <c r="C21">
-        <v>0.4400027601921011</v>
+        <v>0.7251010268721529</v>
       </c>
       <c r="D21">
-        <v>0.03716110309839138</v>
+        <v>0.07161950727766708</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7806158502975364</v>
+        <v>0.7357451479276023</v>
       </c>
       <c r="G21">
-        <v>0.002419338437068593</v>
+        <v>0.0007732588865135283</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2788108375912515</v>
+        <v>0.2400432848633187</v>
       </c>
       <c r="M21">
-        <v>0.3335918741049397</v>
+        <v>0.7230321561653739</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.619518664773977</v>
+        <v>1.95643400830275</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.715543669697638</v>
+        <v>4.745233806148917</v>
       </c>
       <c r="C22">
-        <v>0.4518152789830481</v>
+        <v>0.7609962211622872</v>
       </c>
       <c r="D22">
-        <v>0.03852069889153142</v>
+        <v>0.0756739679935805</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7848185394536529</v>
+        <v>0.7794386482671172</v>
       </c>
       <c r="G22">
-        <v>0.002417196422199151</v>
+        <v>0.0007695606716170815</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2808290670911617</v>
+        <v>0.2536102586244482</v>
       </c>
       <c r="M22">
-        <v>0.3486007588146336</v>
+        <v>0.7773260865111737</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.619463422110101</v>
+        <v>2.053813805702276</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.663350598659974</v>
+        <v>4.568025835536503</v>
       </c>
       <c r="C23">
-        <v>0.4455122432351857</v>
+        <v>0.74181889783614</v>
       </c>
       <c r="D23">
-        <v>0.03779545238889881</v>
+        <v>0.07350840633089462</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.782524338841398</v>
+        <v>0.7559038341971132</v>
       </c>
       <c r="G23">
-        <v>0.002418331973199823</v>
+        <v>0.0007715293267510882</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2797398013318855</v>
+        <v>0.2463280359240798</v>
       </c>
       <c r="M23">
-        <v>0.3405849149660725</v>
+        <v>0.7482971445284292</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.619318190358314</v>
+        <v>2.001143328122851</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.465704954285627</v>
+        <v>3.901478331452211</v>
       </c>
       <c r="C24">
-        <v>0.4216085768341031</v>
+        <v>0.6695826467351935</v>
       </c>
       <c r="D24">
-        <v>0.03504016985618819</v>
+        <v>0.06533883535568918</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7749572011577897</v>
+        <v>0.6712756636995749</v>
       </c>
       <c r="G24">
-        <v>0.002422801856210933</v>
+        <v>0.000779102830645477</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2758802272260823</v>
+        <v>0.2196149554989546</v>
       </c>
       <c r="M24">
-        <v>0.3103441812055578</v>
+        <v>0.6394065417288886</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.622599698126095</v>
+        <v>1.816308294583735</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.252624532376501</v>
+        <v>3.19006036399918</v>
       </c>
       <c r="C25">
-        <v>0.3957669810866378</v>
+        <v>0.5923241998682442</v>
       </c>
       <c r="D25">
-        <v>0.03205095645453326</v>
+        <v>0.05657508263505662</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7691795773028645</v>
+        <v>0.5883513406336007</v>
       </c>
       <c r="G25">
-        <v>0.002427987204045439</v>
+        <v>0.0007875492970517526</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2722853365068545</v>
+        <v>0.192416914021166</v>
       </c>
       <c r="M25">
-        <v>0.2779840279621553</v>
+        <v>0.5237569200814605</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.634281830457326</v>
+        <v>1.644242869674599</v>
       </c>
     </row>
   </sheetData>
